--- a/config/tests/test-files/Billing/Billing.xlsx
+++ b/config/tests/test-files/Billing/Billing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDBA10-A929-4F25-80C1-1DA3BDA33DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD3046-EFA5-4F88-BACF-9C934D8F0302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="3000" windowWidth="21600" windowHeight="12015" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
+    <workbookView xWindow="495" yWindow="2520" windowWidth="21600" windowHeight="12015" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>client_id</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>insurance_id</t>
+  </si>
+  <si>
+    <t>authorization_name</t>
+  </si>
+  <si>
+    <t>place_of_service</t>
+  </si>
+  <si>
+    <t>service_address</t>
   </si>
 </sst>
 </file>
@@ -410,20 +428,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C8CAB-93C8-4E11-B508-F32B521450CD}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12345</v>
       </c>

--- a/config/tests/test-files/Billing/Billing.xlsx
+++ b/config/tests/test-files/Billing/Billing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD3046-EFA5-4F88-BACF-9C934D8F0302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A262CE5-4F79-4B42-B4D9-A70E38925623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2520" windowWidth="21600" windowHeight="12015" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>client_id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>service_address</t>
+  </si>
+  <si>
+    <t>2028-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
   </si>
 </sst>
 </file>
@@ -92,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,24 +438,24 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -466,7 +473,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12345</v>
+        <v>1098265</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/config/tests/test-files/Billing/Billing.xlsx
+++ b/config/tests/test-files/Billing/Billing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A262CE5-4F79-4B42-B4D9-A70E38925623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DA99B-F43F-4902-BE4F-6E51BC7BCA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
   </bookViews>
@@ -69,13 +69,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFECDDF7"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +445,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +453,10 @@
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -481,6 +492,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2">
+        <v>3081905</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/tests/test-files/Billing/Billing.xlsx
+++ b/config/tests/test-files/Billing/Billing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0DA99B-F43F-4902-BE4F-6E51BC7BCA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66E249A-020F-4A99-939E-1682F71EE51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
+    <workbookView xWindow="7320" yWindow="0" windowWidth="21600" windowHeight="12015" xr2:uid="{E494561C-CA71-43C5-B4B1-030CD0E2E993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>client_id</t>
   </si>
@@ -48,15 +48,6 @@
   </si>
   <si>
     <t>insurance_id</t>
-  </si>
-  <si>
-    <t>authorization_name</t>
-  </si>
-  <si>
-    <t>place_of_service</t>
-  </si>
-  <si>
-    <t>service_address</t>
   </si>
   <si>
     <t>2028-08-08</t>
@@ -442,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8C8CAB-93C8-4E11-B508-F32B521450CD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +450,7 @@
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,25 +463,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1098265</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>3081905</v>
